--- a/docs/ST1a/ST1a_30.07.24v_output.xlsx
+++ b/docs/ST1a/ST1a_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731662862.4132729</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731662862.703033</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662862.4132729.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662862.703033.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.64</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731662878.670707</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731662879.6017919</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662878.670707.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662879.6017919.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>132.41</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>132.39</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731662885.6087224</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731662885.8917077</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662885.6087224.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662885.8917077.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6794.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6801.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>7</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731662888.277326</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731662889.7931123</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662888.277326.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662889.7931123.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6810.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6802.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-8</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731662894.9555337</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731662897.7624657</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662894.9555337.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662897.7624657.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>510.8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>511.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.050000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731662897.7793944</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731662899.3571515</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662897.7793944.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662899.3571515.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>511.85</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>512.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731662901.6369054</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731662902.9822605</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662901.6369054.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662902.9822605.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>511.85</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>511</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731662903.6708364</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731662906.2548993</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662903.6708364.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662906.2548993.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1045</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-3.799999999999955</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731662907.6034565</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731662910.3035793</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662907.6034565.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662910.3035793.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1046.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731662910.3195379</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731662911.1657758</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662910.3195379.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662911.1657758.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1046.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1059,95 +1135,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731662912.8573887</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731662912.8573887.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731662912.8573887.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1043</v>
       </c>
-      <c r="J13" t="n">
-        <v>1043</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1047.2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-4.200000000000045</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731662919.3249378</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731662919.6732862</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662919.3249378.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662919.6732862.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.38</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.56</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731662919.6882484</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731662921.2594624</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662919.6882484.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662921.2594624.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.56</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.56</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731662921.363382</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731662923.0344968</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662921.363382.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662923.0344968.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.42</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.46</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731662923.2857728</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731662924.1066165</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662923.2857728.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662924.1066165.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>165.82</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>166.06</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731662928.67032</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731662929.9796035</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662928.67032.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662929.9796035.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>166.48</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>166.32</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731662932.141505</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731662932.141505.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731662932.141505.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>165.7</v>
       </c>
-      <c r="J19" t="n">
-        <v>165.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.01999999999998181</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731662933.44723</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731662934.9034474</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662933.44723.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662934.9034474.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>51.74</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>51.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731662943.788475</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731662949.4121532</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662943.788475.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662949.4121532.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1419.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1511,95 +1641,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731662949.42811</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731662949.42811.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731662949.42811.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1420.6</v>
       </c>
-      <c r="J22" t="n">
-        <v>1420.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731662952.792334</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731662953.918747</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662952.792334.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662953.918747.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>60.65</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>60.54</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731662956.4472823</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731662957.619757</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662956.4472823.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662957.619757.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>60.61</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>60.62</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731662960.422835</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731662961.4603517</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662960.422835.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662961.4603517.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>60.54</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.49</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731662961.4762845</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731662961.9612756</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662961.4762845.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662961.9612756.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>60.49</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>60.41</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731662968.3016722</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731662971.6031067</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662968.3016722.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662971.6031067.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>141.36</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>141.22</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.1400000000000148</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1815,95 +1981,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731662971.6180677</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731662971.6180677.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731662971.6180677.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>141.22</v>
       </c>
-      <c r="J28" t="n">
-        <v>141.22</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731662974.0917647</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731662975.6530766</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662974.0917647.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662975.6530766.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>54</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>54.07</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731662975.7508235</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731662976.4786131</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662975.7508235.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662976.4786131.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>54.05</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>54.05</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731662978.172161</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731662978.8889422</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662978.172161.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662978.8889422.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>53.97</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>53.86</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731662979.5182214</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731662980.5711882</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662979.5182214.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662980.5711882.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>53.88</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>53.9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731662980.6368828</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731662980.9601707</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662980.6368828.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662980.9601707.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>53.83</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>53.9</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731662989.4909787</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731662990.8652773</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662989.4909787.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662990.8652773.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>374.99</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>374</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.9900000000000091</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2171,95 +2379,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731663004.0599415</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731663004.0599415.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731663004.0599415.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>3020.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>3020.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3018.15</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-2.449999999999818</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731663006.2478468</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731663008.3674455</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731663006.2478468.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731663008.3674455.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>34.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>34.49</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2267,95 +2487,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731663015.0399323</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731663015.0399323.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731663015.0399323.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>34.395</v>
       </c>
-      <c r="J37" t="n">
-        <v>34.395</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>34.53</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.134999999999998</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731663017.4169834</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731663025.267361</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731663017.4169834.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/TATN1731663025.267361.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>640.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>640.3</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731663025.4338467</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731663025.7554085</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731663025.4338467.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/TATN1731663025.7554085.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>640.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>640.3</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2513,19 +2751,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2</v>
+        <v>-6.200000000000045</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5</v>
+        <v>-1.550000000000011</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.18</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="5">
@@ -2557,19 +2795,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08000000000001251</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02666666666667084</v>
+        <v>0.03333333333333144</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03999999999999998</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -2601,19 +2839,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1099999999999994</v>
+        <v>-0.2449999999999974</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05499999999999972</v>
+        <v>-0.1224999999999987</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.32</v>
+        <v>-0.71</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.16</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="9">
@@ -2645,19 +2883,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.599999999999909</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.7999999999999545</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -2667,19 +2905,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1400000000000148</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07000000000000739</v>
+        <v>0.1499999999999915</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -2733,19 +2971,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-2.449999999999818</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-2.449999999999818</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15">
